--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/FxOptionPricer.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/FxOptionPricer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr saveExternalLinkValues="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AA522D-C27B-43D5-84EF-50B54B473794}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058B17AB-5429-48DF-B7F2-A59AE429EBEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="28515" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetInfo &amp; GetInstrumentInfo" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,15 @@
   <definedNames>
     <definedName name="CurveList">'GetInfo &amp; GetInstrumentInfo'!$A$8:$A$129</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2068,7 +2076,7 @@
     <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>_xll.HLV5r3.Financial.Cache.GetCurveEngineVersionInfo()</f>
-        <v>Version: FpML.V5r3 v1.0 Built on : 27/04/2018, 8:03 AM</v>
+        <v>Version: FpML.V5r3 v1.0 Built on : 28/06/2019, 9:25 AM</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2111,12 +2119,12 @@
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="str">
         <f t="array" ref="A8:A129">_xll.HLV5r3.Financial.Cache.ListUpTo100PricingStructures( C6:D7)</f>
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
       </c>
       <c r="C9" s="103" t="s">
         <v>90</v>
@@ -2125,12 +2133,12 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2161,10 +2169,10 @@
       </c>
       <c r="F15" t="str">
         <f t="array" ref="F15:G56">_xll.HLV5r3.Financial.Cache.GetQuotedAssetSet( A11)</f>
-        <v>USD-Deposit-1D</v>
+        <v>AUD-Deposit-1D</v>
       </c>
       <c r="G15">
-        <v>2.5000000000000001E-3</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2178,10 +2186,10 @@
         <v>5.3499999999999997E-3</v>
       </c>
       <c r="F16" t="str">
-        <v>USD-Deposit-1W</v>
+        <v>AUD-Deposit-1M</v>
       </c>
       <c r="G16">
-        <v>5.3499999999999997E-3</v>
+        <v>4.6032999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2195,10 +2203,10 @@
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="F17" t="str">
-        <v>USD-Deposit-1M</v>
+        <v>AUD-Deposit-2M</v>
       </c>
       <c r="G17">
-        <v>2.0500000000000002E-3</v>
+        <v>4.6833E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2212,10 +2220,10 @@
         <v>7.2500000000000004E-3</v>
       </c>
       <c r="F18" t="str">
-        <v>USD-Deposit-2M</v>
+        <v>AUD-Deposit-3M</v>
       </c>
       <c r="G18">
-        <v>2.3999999999999998E-3</v>
+        <v>4.7600000000000003E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2229,10 +2237,10 @@
         <v>7.2500000000000004E-3</v>
       </c>
       <c r="F19" t="str">
-        <v>USD-Deposit-3M</v>
+        <v>AUD-BasisSwap-4Y-6M</v>
       </c>
       <c r="G19">
-        <v>6.7499999999999999E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2246,10 +2254,10 @@
         <v>1.5375E-2</v>
       </c>
       <c r="F20" t="str">
-        <v>USD-IRSwap-3Y</v>
+        <v>AUD-BasisSwap-5Y-6M</v>
       </c>
       <c r="G20">
-        <v>1.0205000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2263,10 +2271,10 @@
         <v>1.8175E-2</v>
       </c>
       <c r="F21" t="str">
-        <v>USD-IRSwap-4Y</v>
+        <v>AUD-BasisSwap-7Y-6M</v>
       </c>
       <c r="G21">
-        <v>1.3585E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2280,10 +2288,10 @@
         <v>2.0750000000000001E-2</v>
       </c>
       <c r="F22" t="str">
-        <v>USD-IRSwap-5Y</v>
+        <v>AUD-BasisSwap-10Y-6M</v>
       </c>
       <c r="G22">
-        <v>1.6865000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2297,10 +2305,10 @@
         <v>2.512E-2</v>
       </c>
       <c r="F23" t="str">
-        <v>USD-IRSwap-7Y</v>
+        <v>AUD-BasisSwap-15Y-6M</v>
       </c>
       <c r="G23">
-        <v>2.189E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2314,10 +2322,10 @@
         <v>2.98E-2</v>
       </c>
       <c r="F24" t="str">
-        <v>USD-IRSwap-10Y</v>
+        <v>AUD-BasisSwap-20Y-6M</v>
       </c>
       <c r="G24">
-        <v>2.6485000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2331,10 +2339,10 @@
         <v>3.1879999999999999E-2</v>
       </c>
       <c r="F25" t="str">
-        <v>USD-IRSwap-12Y</v>
+        <v>AUD-BasisSwap-25Y-6M</v>
       </c>
       <c r="G25">
-        <v>2.8465000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2348,10 +2356,10 @@
         <v>3.3849999999999998E-2</v>
       </c>
       <c r="F26" t="str">
-        <v>USD-IRSwap-15Y</v>
+        <v>AUD-BasisSwap-30Y-6M</v>
       </c>
       <c r="G26">
-        <v>3.048E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2365,10 +2373,10 @@
         <v>3.5400000000000001E-2</v>
       </c>
       <c r="F27" t="str">
-        <v>USD-IRSwap-20Y</v>
+        <v>AUD-IRSwap-3Y</v>
       </c>
       <c r="G27">
-        <v>3.211E-2</v>
+        <v>4.8099999999999997E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2382,10 +2390,10 @@
         <v>3.5950000000000003E-2</v>
       </c>
       <c r="F28" t="str">
-        <v>USD-IRSwap-25Y</v>
+        <v>AUD-IRSwap-4Y</v>
       </c>
       <c r="G28">
-        <v>3.2910000000000002E-2</v>
+        <v>4.9875000000000003E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2399,10 +2407,10 @@
         <v>3.6124999999999997E-2</v>
       </c>
       <c r="F29" t="str">
-        <v>USD-IRSwap-30Y</v>
+        <v>AUD-IRSwap-5Y</v>
       </c>
       <c r="G29">
-        <v>3.3360000000000001E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2416,10 +2424,10 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="F30" t="str">
-        <v>USD-IRFuture-ED-1</v>
+        <v>AUD-IRSwap-6Y</v>
       </c>
       <c r="G30">
-        <v>3.1250000000000002E-3</v>
+        <v>5.1538E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2433,10 +2441,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F31" t="str">
-        <v>USD-IRFuture-ED-2</v>
+        <v>AUD-IRSwap-7Y</v>
       </c>
       <c r="G31">
-        <v>4.15E-3</v>
+        <v>5.2150000000000002E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2450,10 +2458,10 @@
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="F32" t="str">
-        <v>USD-IRFuture-ED-3</v>
+        <v>AUD-IRSwap-8Y</v>
       </c>
       <c r="G32">
-        <v>4.7000000000000002E-3</v>
+        <v>5.2549999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2467,10 +2475,10 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="F33" t="str">
-        <v>USD-IRFuture-ED-4</v>
+        <v>AUD-IRSwap-9Y</v>
       </c>
       <c r="G33">
-        <v>5.6499999999999996E-3</v>
+        <v>5.2824999999999997E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2484,10 +2492,10 @@
         <v>1.03E-2</v>
       </c>
       <c r="F34" t="str">
-        <v>USD-IRFuture-ED-5</v>
+        <v>AUD-IRSwap-10Y</v>
       </c>
       <c r="G34">
-        <v>7.0000000000000001E-3</v>
+        <v>5.3074999999999997E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2501,10 +2509,10 @@
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="F35" t="str">
-        <v>USD-IRFuture-ED-6</v>
+        <v>AUD-IRSwap-15Y</v>
       </c>
       <c r="G35">
-        <v>8.7500000000000008E-3</v>
+        <v>5.3975000000000002E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2518,10 +2526,10 @@
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="F36" t="str">
-        <v>USD-IRFuture-ED-7</v>
+        <v>AUD-IRSwap-20Y</v>
       </c>
       <c r="G36">
-        <v>1.06E-2</v>
+        <v>5.3699999999999998E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2535,10 +2543,10 @@
         <v>1.54E-2</v>
       </c>
       <c r="F37" t="str">
-        <v>USD-IRFuture-ED-8</v>
+        <v>AUD-IRFuture-IR-1</v>
       </c>
       <c r="G37">
-        <v>1.26E-2</v>
+        <v>4.7500000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2551,11 +2559,11 @@
       <c r="D38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G38" t="e">
-        <v>#N/A</v>
+      <c r="F38" t="str">
+        <v>AUD-IRFuture-IR-2</v>
+      </c>
+      <c r="G38">
+        <v>4.6800000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2568,11 +2576,11 @@
       <c r="D39" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G39" t="e">
-        <v>#N/A</v>
+      <c r="F39" t="str">
+        <v>AUD-IRFuture-IR-3</v>
+      </c>
+      <c r="G39">
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2585,11 +2593,11 @@
       <c r="D40" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G40" t="e">
-        <v>#N/A</v>
+      <c r="F40" t="str">
+        <v>AUD-IRFuture-IR-4</v>
+      </c>
+      <c r="G40">
+        <v>4.7100000000000003E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2602,11 +2610,11 @@
       <c r="D41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G41" t="e">
-        <v>#N/A</v>
+      <c r="F41" t="str">
+        <v>AUD-IRFuture-IR-5</v>
+      </c>
+      <c r="G41">
+        <v>4.7500000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2619,11 +2627,11 @@
       <c r="D42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G42" t="e">
-        <v>#N/A</v>
+      <c r="F42" t="str">
+        <v>AUD-IRFuture-IR-6</v>
+      </c>
+      <c r="G42">
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2636,16 +2644,16 @@
       <c r="D43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G43" t="e">
-        <v>#N/A</v>
+      <c r="F43" t="str">
+        <v>AUD-IRFuture-IR-7</v>
+      </c>
+      <c r="G43">
+        <v>4.8500000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="C44" t="e">
         <v>#N/A</v>
@@ -2653,16 +2661,16 @@
       <c r="D44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G44" t="e">
-        <v>#N/A</v>
+      <c r="F44" t="str">
+        <v>AUD-IRFuture-IR-8</v>
+      </c>
+      <c r="G44">
+        <v>4.87E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
       </c>
       <c r="C45" t="e">
         <v>#N/A</v>
@@ -2679,7 +2687,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
       </c>
       <c r="C46" t="e">
         <v>#N/A</v>
@@ -2696,7 +2704,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
       </c>
       <c r="C47" t="e">
         <v>#N/A</v>
@@ -2713,7 +2721,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
       </c>
       <c r="C48" t="e">
         <v>#N/A</v>
@@ -2730,7 +2738,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="C49" t="e">
         <v>#N/A</v>
@@ -2747,7 +2755,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="C50" t="e">
         <v>#N/A</v>
@@ -2764,7 +2772,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="C51" t="e">
         <v>#N/A</v>
@@ -2781,7 +2789,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
       </c>
       <c r="C52" t="e">
         <v>#N/A</v>
@@ -2798,7 +2806,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
       </c>
       <c r="C53" t="e">
         <v>#N/A</v>
@@ -2815,7 +2823,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
       </c>
       <c r="C54" t="e">
         <v>#N/A</v>
@@ -2832,7 +2840,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
       </c>
       <c r="C55" t="e">
         <v>#N/A</v>
@@ -2849,7 +2857,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
       </c>
       <c r="C56" t="e">
         <v>#N/A</v>
@@ -2866,252 +2874,252 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="6" t="str">
-        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="6" t="str">
-        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-3M</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.USD-OIS-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-OIS-SENIOR</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="6" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="6" t="str">
-        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-15Y</v>
+        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-9Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-8Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-15Y</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -3270,7 +3278,7 @@
       </c>
       <c r="B3" s="98">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(B11,"2d",B20,"FOLLOWING","Business")</f>
-        <v>43221</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3305,7 +3313,7 @@
       </c>
       <c r="B7" s="101">
         <f ca="1">B18</f>
-        <v>43405</v>
+        <v>43832</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3338,7 +3346,7 @@
       </c>
       <c r="B11" s="23">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3395,7 +3403,7 @@
       </c>
       <c r="B18" s="26">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(B3,B17,B20,"FOLLOWING","Calendar")</f>
-        <v>43405</v>
+        <v>43832</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3404,7 +3412,7 @@
       </c>
       <c r="B19" s="79">
         <f ca="1">B18</f>
-        <v>43405</v>
+        <v>43832</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3470,7 +3478,7 @@
       </c>
       <c r="B27" s="26">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(B18,"2d",B20,"FOLLOWING","Business")</f>
-        <v>43409</v>
+        <v>43836</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3536,7 +3544,7 @@
       </c>
       <c r="B36" s="33">
         <f ca="1"/>
-        <v>963570.88164903247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3556,7 +3564,7 @@
       </c>
       <c r="B38" s="33">
         <f ca="1"/>
-        <v>-991428.21182903508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3566,7 +3574,7 @@
       </c>
       <c r="B39" s="33">
         <f ca="1"/>
-        <v>963570.88118722127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3609,7 +3617,7 @@
       </c>
       <c r="B47" s="33">
         <f ca="1"/>
-        <v>963570.88164903247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3629,7 +3637,7 @@
       </c>
       <c r="B49" s="33">
         <f ca="1"/>
-        <v>-991428.21182903508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3639,7 +3647,7 @@
       </c>
       <c r="B50" s="33">
         <f ca="1"/>
-        <v>963570.88118722127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4460,7 +4468,7 @@
       <c r="C2" s="37"/>
       <c r="D2" s="38">
         <f ca="1">TODAY() + 52</f>
-        <v>43269</v>
+        <v>43696</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>92</v>
@@ -4528,7 +4536,7 @@
       </c>
       <c r="I5" s="49">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="K5" s="45"/>
       <c r="L5" s="45"/>
@@ -5159,7 +5167,7 @@
       </c>
       <c r="E36" s="70">
         <f ca="1"/>
-        <v>968058.72153006971</v>
+        <v>0</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="39"/>
@@ -5195,7 +5203,7 @@
       </c>
       <c r="E38" s="70">
         <f ca="1"/>
-        <v>-993771.92605997203</v>
+        <v>0</v>
       </c>
       <c r="F38" s="43"/>
       <c r="G38" s="39"/>
@@ -5213,7 +5221,7 @@
       </c>
       <c r="E39" s="70">
         <f ca="1"/>
-        <v>968058.72106716689</v>
+        <v>0</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39" s="39"/>
@@ -5231,7 +5239,7 @@
       </c>
       <c r="E40">
         <f ca="1"/>
-        <v>23.576679880432195</v>
+        <v>38.537183208517874</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="39"/>
@@ -5841,11 +5849,11 @@
       </c>
       <c r="F3" s="11">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G3" s="11">
         <f ca="1">F3+90</f>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>19</v>
@@ -5906,15 +5914,15 @@
       <c r="N4" s="13"/>
       <c r="O4" s="15">
         <f ca="1"/>
-        <v>2120667228059162.5</v>
+        <v>187161.39994898834</v>
       </c>
       <c r="P4" s="15">
         <f ca="1"/>
-        <v>2146826259880000</v>
+        <v>180000</v>
       </c>
       <c r="Q4" s="15">
         <f ca="1"/>
-        <v>51647995371.426842</v>
+        <v>4.7902676111670282</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>21</v>
@@ -5942,11 +5950,11 @@
       </c>
       <c r="F5" s="11">
         <f ca="1">F3</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G5" s="11">
         <f ca="1">G3+5</f>
-        <v>43312</v>
+        <v>43739</v>
       </c>
       <c r="H5" s="10" t="str">
         <f>H3</f>
@@ -5992,7 +6000,7 @@
       </c>
       <c r="S5" s="16">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="6" spans="2:22">
@@ -6011,15 +6019,15 @@
       <c r="N6" s="13"/>
       <c r="O6" s="15">
         <f ca="1"/>
-        <v>2119232609074081.5</v>
+        <v>192557.67140305342</v>
       </c>
       <c r="P6" s="15">
         <f ca="1"/>
-        <v>2146826259885000</v>
+        <v>185000</v>
       </c>
       <c r="Q6" s="15">
         <f ca="1"/>
-        <v>54480674247.980156</v>
+        <v>5.1967342390849547</v>
       </c>
       <c r="R6" t="str">
         <f ca="1"/>
@@ -6048,11 +6056,11 @@
       </c>
       <c r="F7" s="11">
         <f ca="1">F5</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G7" s="11">
         <f ca="1">G5+5</f>
-        <v>43317</v>
+        <v>43744</v>
       </c>
       <c r="H7" s="10" t="str">
         <f>H5</f>
@@ -6117,15 +6125,15 @@
       <c r="N8" s="13"/>
       <c r="O8" s="15">
         <f ca="1"/>
-        <v>2117784015590424.3</v>
+        <v>198240.92738472804</v>
       </c>
       <c r="P8" s="15">
         <f ca="1"/>
-        <v>2146826259889999.8</v>
+        <v>190000</v>
       </c>
       <c r="Q8" s="15">
         <f ca="1"/>
-        <v>57308727730.443901</v>
+        <v>5.6329852595906544</v>
       </c>
       <c r="R8" t="str">
         <f ca="1"/>
@@ -6154,11 +6162,11 @@
       </c>
       <c r="F9" s="11">
         <f ca="1">F7</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G9" s="11">
         <f ca="1">G7+5</f>
-        <v>43322</v>
+        <v>43749</v>
       </c>
       <c r="H9" s="10" t="str">
         <f>H7</f>
@@ -6223,15 +6231,15 @@
       <c r="N10" s="13"/>
       <c r="O10" s="15">
         <f ca="1"/>
-        <v>2116335796647522.8</v>
+        <v>203957.50698040347</v>
       </c>
       <c r="P10" s="15">
         <f ca="1"/>
-        <v>2146826259895000</v>
+        <v>195000</v>
       </c>
       <c r="Q10" s="15">
         <f ca="1"/>
-        <v>60132857029.682022</v>
+        <v>6.0865930782644408</v>
       </c>
       <c r="R10" t="str">
         <f ca="1"/>
@@ -6260,11 +6268,11 @@
       </c>
       <c r="F11" s="11">
         <f ca="1">F9</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G11" s="11">
         <f ca="1">G9+5</f>
-        <v>43327</v>
+        <v>43754</v>
       </c>
       <c r="H11" s="10" t="str">
         <f>H9</f>
@@ -6329,15 +6337,15 @@
       <c r="N12" s="13"/>
       <c r="O12" s="15">
         <f ca="1"/>
-        <v>2114887952833984.3</v>
+        <v>209505.43229278759</v>
       </c>
       <c r="P12" s="15">
         <f ca="1"/>
-        <v>2146826259900000</v>
+        <v>200000</v>
       </c>
       <c r="Q12" s="15">
         <f ca="1"/>
-        <v>62953063714.454636</v>
+        <v>6.5465690368644491</v>
       </c>
       <c r="R12" t="str">
         <f ca="1"/>
@@ -6366,11 +6374,11 @@
       </c>
       <c r="F13" s="11">
         <f ca="1">F11</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G13" s="11">
         <f ca="1">G11+5</f>
-        <v>43332</v>
+        <v>43759</v>
       </c>
       <c r="H13" s="10" t="str">
         <f>H11</f>
@@ -6435,15 +6443,15 @@
       <c r="N14" s="13"/>
       <c r="O14" s="15">
         <f ca="1"/>
-        <v>2113440484737682.8</v>
+        <v>214924.70211569461</v>
       </c>
       <c r="P14" s="15">
         <f ca="1"/>
-        <v>2146826259905000</v>
+        <v>205000</v>
       </c>
       <c r="Q14" s="15">
         <f ca="1"/>
-        <v>65769349356.667458</v>
+        <v>7.0144737656383915</v>
       </c>
       <c r="R14" t="str">
         <f ca="1"/>
@@ -6472,11 +6480,11 @@
       </c>
       <c r="F15" s="11">
         <f ca="1">F13</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G15" s="11">
         <f ca="1">G13+5</f>
-        <v>43337</v>
+        <v>43764</v>
       </c>
       <c r="H15" s="10" t="str">
         <f>H13</f>
@@ -6530,7 +6538,7 @@
       </c>
       <c r="V15" s="12">
         <f ca="1"/>
-        <v>2120667228059162.5</v>
+        <v>187161.39994898834</v>
       </c>
     </row>
     <row r="16" spans="2:22">
@@ -6549,15 +6557,15 @@
       <c r="N16" s="13"/>
       <c r="O16" s="15">
         <f ca="1"/>
-        <v>2111993392945753</v>
+        <v>220342.7850892042</v>
       </c>
       <c r="P16" s="15">
         <f ca="1"/>
-        <v>2146826259909999.8</v>
+        <v>210000</v>
       </c>
       <c r="Q16" s="15">
         <f ca="1"/>
-        <v>68581715531.367714</v>
+        <v>7.4971492490366369</v>
       </c>
       <c r="R16" t="str">
         <f ca="1"/>
@@ -6573,7 +6581,7 @@
       </c>
       <c r="V16">
         <f ca="1"/>
-        <v>2146826259880000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="17" spans="2:22">
@@ -6594,11 +6602,11 @@
       </c>
       <c r="F17" s="11">
         <f ca="1">F15</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G17" s="11">
         <f ca="1">G15+5</f>
-        <v>43342</v>
+        <v>43769</v>
       </c>
       <c r="H17" s="10" t="str">
         <f>H15</f>
@@ -6652,7 +6660,7 @@
       </c>
       <c r="V17">
         <f ca="1"/>
-        <v>51647995371.426842</v>
+        <v>4.7902676111670282</v>
       </c>
     </row>
     <row r="18" spans="2:22">
@@ -6671,15 +6679,15 @@
       <c r="N18" s="13"/>
       <c r="O18" s="15">
         <f ca="1"/>
-        <v>2110546678044598.8</v>
+        <v>225759.67195622454</v>
       </c>
       <c r="P18" s="15">
         <f ca="1"/>
-        <v>2146826259915000</v>
+        <v>215000</v>
       </c>
       <c r="Q18" s="15">
         <f ca="1"/>
-        <v>71390163816.738892</v>
+        <v>7.9945900653232531</v>
       </c>
       <c r="R18" t="e">
         <f ca="1"/>
@@ -6695,7 +6703,7 @@
       </c>
       <c r="V18">
         <f ca="1"/>
-        <v>4241334454369286</v>
+        <v>-1382945.379740939</v>
       </c>
     </row>
     <row r="19" spans="2:22">
@@ -6716,11 +6724,11 @@
       </c>
       <c r="F19" s="11">
         <f ca="1">F17</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G19" s="11">
         <f ca="1">G17+5</f>
-        <v>43347</v>
+        <v>43774</v>
       </c>
       <c r="H19" s="10" t="str">
         <f>H17</f>
@@ -6777,15 +6785,15 @@
       <c r="N20" s="13"/>
       <c r="O20" s="15">
         <f ca="1"/>
-        <v>2109100340619889.8</v>
+        <v>231175.3534629996</v>
       </c>
       <c r="P20" s="15">
         <f ca="1"/>
-        <v>2146826259919999.8</v>
+        <v>220000</v>
       </c>
       <c r="Q20" s="15">
         <f ca="1"/>
-        <v>74194695794.094986</v>
+        <v>8.5067907423334166</v>
       </c>
       <c r="U20" t="s">
         <v>30</v>
@@ -6812,11 +6820,11 @@
       </c>
       <c r="F21" s="11">
         <f ca="1">F19</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G21" s="11">
         <f ca="1">G19+5</f>
-        <v>43352</v>
+        <v>43779</v>
       </c>
       <c r="H21" s="10" t="str">
         <f>H19</f>
@@ -6873,15 +6881,15 @@
       <c r="N22" s="13"/>
       <c r="O22" s="15">
         <f ca="1"/>
-        <v>2107654381256550</v>
+        <v>236589.82035913109</v>
       </c>
       <c r="P22" s="15">
         <f ca="1"/>
-        <v>2146826259924999.8</v>
+        <v>225000</v>
       </c>
       <c r="Q22" s="15">
         <f ca="1"/>
-        <v>76995313047.876053</v>
+        <v>9.0337457574983944</v>
       </c>
       <c r="V22" s="12"/>
     </row>
@@ -6903,11 +6911,11 @@
       </c>
       <c r="F23" s="11">
         <f ca="1">F21</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G23" s="11">
         <f ca="1">G21+5</f>
-        <v>43357</v>
+        <v>43784</v>
       </c>
       <c r="H23" s="11" t="str">
         <f>H21</f>
@@ -6964,15 +6972,15 @@
       <c r="N24" s="13"/>
       <c r="O24" s="15">
         <f ca="1"/>
-        <v>2106208800538780.3</v>
+        <v>242003.06339761359</v>
       </c>
       <c r="P24" s="15">
         <f ca="1"/>
-        <v>2146826259929999.8</v>
+        <v>230000</v>
       </c>
       <c r="Q24" s="15">
         <f ca="1"/>
-        <v>79792017165.643707</v>
+        <v>9.5754495378713624</v>
       </c>
     </row>
     <row r="25" spans="2:22">
@@ -6993,11 +7001,11 @@
       </c>
       <c r="F25" s="11">
         <f ca="1">F23</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G25" s="11">
         <f ca="1">G23+5</f>
-        <v>43362</v>
+        <v>43789</v>
       </c>
       <c r="H25" s="11" t="str">
         <f>H23</f>
@@ -7054,15 +7062,15 @@
       <c r="N26" s="13"/>
       <c r="O26" s="15">
         <f ca="1"/>
-        <v>2104763599050038.3</v>
+        <v>247415.07333485581</v>
       </c>
       <c r="P26" s="15">
         <f ca="1"/>
-        <v>2146826259935000</v>
+        <v>235000</v>
       </c>
       <c r="Q26" s="15">
         <f ca="1"/>
-        <v>82584809738.075272</v>
+        <v>10.131896460152708</v>
       </c>
     </row>
     <row r="27" spans="2:22">
@@ -7627,13 +7635,13 @@
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="15">
-        <v>2.1076543812119696E+17</v>
+        <v>19164721.479945276</v>
       </c>
       <c r="R4" s="15">
-        <v>2.14682625988E+17</v>
+        <v>18000000</v>
       </c>
       <c r="S4" s="15">
-        <v>7699531304623.7588</v>
+        <v>737.29186940439706</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>21</v>
@@ -7735,13 +7743,13 @@
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="15">
-        <v>2.1062088004694573E+17</v>
+        <v>17209624.694179907</v>
       </c>
       <c r="R6" s="15">
-        <v>2.14682625986E+17</v>
+        <v>16000000</v>
       </c>
       <c r="S6" s="15">
-        <v>7979201716300.1484</v>
+        <v>689.64198039695452</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>49</v>
@@ -7843,13 +7851,13 @@
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="15">
-        <v>2.1047635990846874E+17</v>
+        <v>28236650.86366066</v>
       </c>
       <c r="R8" s="15">
-        <v>2.14682625997E+17</v>
+        <v>27000000</v>
       </c>
       <c r="S8" s="15">
-        <v>8258480973944.3076</v>
+        <v>1151.9165091481045</v>
       </c>
       <c r="U8" s="10" t="e">
         <f ca="1"/>
